--- a/biology/Zoologie/Chthonius_delmastroi/Chthonius_delmastroi.xlsx
+++ b/biology/Zoologie/Chthonius_delmastroi/Chthonius_delmastroi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius delmastroi est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Piémont en Italie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Piémont en Italie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,4 mm et la femelle paratype 1,75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,4 mm et la femelle paratype 1,75 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giovanni Battista Delmastro[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giovanni Battista Delmastro.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gardini, 2009 : Chthonius (C.) delmastroi n. sp. from western Alps and Piedmont, with redescription of Chthonius (C.) tenuis L. Koch, 1873 and C. (C.) submontanus Beier, 1963 (Pseudoscorpiones Chthoniidae). Rivista Piemontese di Storia Naturale, vol. 30, p. 25-51 (texte intégral).</t>
         </is>
